--- a/lab7/data/homelessness_data.xlsx
+++ b/lab7/data/homelessness_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlston\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidsosa/Code/school/regression-analysis/labs/lab7/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671E387-C952-4226-BCF2-D1F1CA247430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292384A6-0F22-6647-9A34-E1BD1325B42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="13020" windowWidth="23840" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Homelessness" sheetId="1" r:id="rId1"/>
@@ -2838,9 +2838,6 @@
     <t>state_code</t>
   </si>
   <si>
-    <t>total_homless_pop</t>
-  </si>
-  <si>
     <t>total_population</t>
   </si>
   <si>
@@ -2872,6 +2869,9 @@
   </si>
   <si>
     <t>pov2andover</t>
+  </si>
+  <si>
+    <t>total_homeless_pop</t>
   </si>
 </sst>
 </file>
@@ -3193,18 +3193,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>934</v>
       </c>
@@ -3212,10 +3212,10 @@
         <v>935</v>
       </c>
       <c r="C1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>10979</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>161548</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>9846</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>6380</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>27487</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>10234</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>6458</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>10431</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>5625</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>4011</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>6360</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>17975</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>8638</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>7940</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>9662</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>91271</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>9280</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>10655</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>13375</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>7256</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>27229</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>5957</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>22923</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3786,54 +3786,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD448BA-3126-4967-99D6-3CA110BD445F}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>934</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D1" t="s">
         <v>937</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>938</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>939</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>940</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>941</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>942</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>943</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>944</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>945</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>946</v>
       </c>
-      <c r="M1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +3872,7 @@
         <v>3074088</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3915,7 +3913,7 @@
         <v>540144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3956,7 +3954,7 @@
         <v>4701965</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3997,7 +3995,7 @@
         <v>1797548</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4038,7 +4036,7 @@
         <v>27245092</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4079,7 +4077,7 @@
         <v>4199801</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4120,7 +4118,7 @@
         <v>2694521</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4161,7 +4159,7 @@
         <v>696607</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4202,7 +4200,7 @@
         <v>489394</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4243,7 +4241,7 @@
         <v>13943593</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4284,7 +4282,7 @@
         <v>6873113</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4325,7 +4323,7 @@
         <v>1082085</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4366,7 +4364,7 @@
         <v>1167243</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4407,7 +4405,7 @@
         <v>9024215</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4448,7 +4446,7 @@
         <v>4507929</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4489,7 +4487,7 @@
         <v>2205782</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4530,7 +4528,7 @@
         <v>2009943</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4571,7 +4569,7 @@
         <v>2783285</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4612,7 +4610,7 @@
         <v>2802408</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4653,7 +4651,7 @@
         <v>936924</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4694,7 +4692,7 @@
         <v>4659086</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4735,7 +4733,7 @@
         <v>5209084</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4776,7 +4774,7 @@
         <v>6767451</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4817,7 +4815,7 @@
         <v>4215561</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4858,7 +4856,7 @@
         <v>1690308</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4899,7 +4897,7 @@
         <v>4093806</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4940,7 +4938,7 @@
         <v>707293</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4981,7 +4979,7 @@
         <v>1354616</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5022,7 +5020,7 @@
         <v>2042664</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5063,7 +5061,7 @@
         <v>1062498</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5104,7 +5102,7 @@
         <v>6784243</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5145,7 +5143,7 @@
         <v>1243470</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5186,7 +5184,7 @@
         <v>13538843</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5227,7 +5225,7 @@
         <v>6766393</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5268,7 +5266,7 @@
         <v>550787</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5309,7 +5307,7 @@
         <v>7889919</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5350,7 +5348,7 @@
         <v>2456613</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5391,7 +5389,7 @@
         <v>2897021</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5432,7 +5430,7 @@
         <v>8971560</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -5473,7 +5471,7 @@
         <v>901516</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -5514,7 +5512,7 @@
         <v>756153</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -5555,7 +5553,7 @@
         <v>3260287</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -5596,7 +5594,7 @@
         <v>596329</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -5637,7 +5635,7 @@
         <v>4372416</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -5678,7 +5676,7 @@
         <v>18703857</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -5719,7 +5717,7 @@
         <v>2312465</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5760,7 +5758,7 @@
         <v>442095</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -5801,7 +5799,7 @@
         <v>6283859</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -5842,7 +5840,7 @@
         <v>5592259</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -5883,7 +5881,7 @@
         <v>1099930</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -5924,7 +5922,7 @@
         <v>4151143</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -5978,9 +5976,9 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -5988,7 +5986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5996,7 +5994,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6004,7 +6002,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6012,7 +6010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6020,7 +6018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6028,7 +6026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6036,7 +6034,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6044,7 +6042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6052,7 +6050,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -6060,7 +6058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6068,7 +6066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6076,7 +6074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6084,7 +6082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6092,7 +6090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6100,7 +6098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -6108,7 +6106,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6116,7 +6114,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -6124,7 +6122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -6132,7 +6130,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -6140,7 +6138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -6148,7 +6146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -6156,7 +6154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -6164,7 +6162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -6172,7 +6170,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -6180,7 +6178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -6188,7 +6186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -6196,7 +6194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -6204,7 +6202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -6212,7 +6210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -6220,7 +6218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -6228,7 +6226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -6236,7 +6234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -6244,7 +6242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -6252,7 +6250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6260,7 +6258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -6276,7 +6274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6284,7 +6282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -6292,7 +6290,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -6300,7 +6298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -6308,7 +6306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -6316,7 +6314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -6324,7 +6322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -6332,7 +6330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -6340,7 +6338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -6348,7 +6346,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -6356,7 +6354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -6364,7 +6362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6372,7 +6370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -6380,7 +6378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -6388,7 +6386,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6396,7 +6394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -6413,13 +6411,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09353E5-526F-4502-B5CF-27162637E468}">
   <dimension ref="A1:Y399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -6496,7 +6492,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -6573,7 +6569,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -6650,7 +6646,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -6727,7 +6723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -6804,7 +6800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -6881,7 +6877,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -6958,7 +6954,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -7035,7 +7031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -7112,7 +7108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -7189,7 +7185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -7266,7 +7262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -7343,7 +7339,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -7420,7 +7416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -7497,7 +7493,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -7574,7 +7570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -7651,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -7728,7 +7724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -7805,7 +7801,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -7882,7 +7878,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -7959,7 +7955,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -8036,7 +8032,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -8113,7 +8109,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -8190,7 +8186,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -8267,7 +8263,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -8344,7 +8340,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -8421,7 +8417,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -8575,7 +8571,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -8652,7 +8648,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -8729,7 +8725,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -8806,7 +8802,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -8883,7 +8879,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -8960,7 +8956,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -9037,7 +9033,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -9114,7 +9110,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -9191,7 +9187,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -9268,7 +9264,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -9345,7 +9341,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -9422,7 +9418,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -9499,7 +9495,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -9576,7 +9572,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -9653,7 +9649,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -9730,7 +9726,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>171</v>
       </c>
@@ -9807,7 +9803,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -9884,7 +9880,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -9958,7 +9954,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -10035,7 +10031,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -10112,7 +10108,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>181</v>
       </c>
@@ -10189,7 +10185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>183</v>
       </c>
@@ -10266,7 +10262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>185</v>
       </c>
@@ -10343,7 +10339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>187</v>
       </c>
@@ -10420,7 +10416,7 @@
         <v>13275</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -10497,7 +10493,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -10574,7 +10570,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>193</v>
       </c>
@@ -10651,7 +10647,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>195</v>
       </c>
@@ -10728,7 +10724,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -10805,7 +10801,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>199</v>
       </c>
@@ -10882,7 +10878,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>201</v>
       </c>
@@ -10959,7 +10955,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -11036,7 +11032,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>205</v>
       </c>
@@ -11113,7 +11109,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>207</v>
       </c>
@@ -11190,7 +11186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>209</v>
       </c>
@@ -11267,7 +11263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>211</v>
       </c>
@@ -11344,7 +11340,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>213</v>
       </c>
@@ -11421,7 +11417,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -11498,7 +11494,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>217</v>
       </c>
@@ -11572,7 +11568,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>219</v>
       </c>
@@ -11649,7 +11645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>221</v>
       </c>
@@ -11726,7 +11722,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>223</v>
       </c>
@@ -11803,7 +11799,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -11880,7 +11876,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>227</v>
       </c>
@@ -11957,7 +11953,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -12034,7 +12030,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>231</v>
       </c>
@@ -12111,7 +12107,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>233</v>
       </c>
@@ -12188,7 +12184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>235</v>
       </c>
@@ -12265,7 +12261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>237</v>
       </c>
@@ -12342,7 +12338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -12419,7 +12415,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>241</v>
       </c>
@@ -12496,7 +12492,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>243</v>
       </c>
@@ -12573,7 +12569,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>245</v>
       </c>
@@ -12650,7 +12646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>247</v>
       </c>
@@ -12727,7 +12723,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -12804,7 +12800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>251</v>
       </c>
@@ -12881,7 +12877,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>253</v>
       </c>
@@ -12958,7 +12954,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>255</v>
       </c>
@@ -13035,7 +13031,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>257</v>
       </c>
@@ -13112,7 +13108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>259</v>
       </c>
@@ -13189,7 +13185,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>261</v>
       </c>
@@ -13266,7 +13262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>263</v>
       </c>
@@ -13343,7 +13339,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>265</v>
       </c>
@@ -13420,7 +13416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>267</v>
       </c>
@@ -13497,7 +13493,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>269</v>
       </c>
@@ -13574,7 +13570,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>271</v>
       </c>
@@ -13651,7 +13647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>273</v>
       </c>
@@ -13728,7 +13724,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>275</v>
       </c>
@@ -13805,7 +13801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>277</v>
       </c>
@@ -13882,7 +13878,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>279</v>
       </c>
@@ -13959,7 +13955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>281</v>
       </c>
@@ -14036,7 +14032,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>283</v>
       </c>
@@ -14113,7 +14109,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>285</v>
       </c>
@@ -14190,7 +14186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>287</v>
       </c>
@@ -14267,7 +14263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>289</v>
       </c>
@@ -14344,7 +14340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>291</v>
       </c>
@@ -14421,7 +14417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>293</v>
       </c>
@@ -14498,7 +14494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>295</v>
       </c>
@@ -14575,7 +14571,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>297</v>
       </c>
@@ -14652,7 +14648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>299</v>
       </c>
@@ -14729,7 +14725,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>301</v>
       </c>
@@ -14806,7 +14802,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>303</v>
       </c>
@@ -14883,7 +14879,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>305</v>
       </c>
@@ -14960,7 +14956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>307</v>
       </c>
@@ -15037,7 +15033,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>309</v>
       </c>
@@ -15114,7 +15110,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>311</v>
       </c>
@@ -15191,7 +15187,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>313</v>
       </c>
@@ -15268,7 +15264,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>315</v>
       </c>
@@ -15345,7 +15341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>317</v>
       </c>
@@ -15422,7 +15418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>319</v>
       </c>
@@ -15499,7 +15495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>321</v>
       </c>
@@ -15576,7 +15572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>323</v>
       </c>
@@ -15653,7 +15649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>325</v>
       </c>
@@ -15730,7 +15726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>327</v>
       </c>
@@ -15807,7 +15803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>329</v>
       </c>
@@ -15884,7 +15880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>331</v>
       </c>
@@ -15961,7 +15957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>333</v>
       </c>
@@ -16038,7 +16034,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>335</v>
       </c>
@@ -16115,7 +16111,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>337</v>
       </c>
@@ -16192,7 +16188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>339</v>
       </c>
@@ -16269,7 +16265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>341</v>
       </c>
@@ -16346,7 +16342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>343</v>
       </c>
@@ -16423,7 +16419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>345</v>
       </c>
@@ -16500,7 +16496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>347</v>
       </c>
@@ -16577,7 +16573,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>349</v>
       </c>
@@ -16654,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>351</v>
       </c>
@@ -16731,7 +16727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>353</v>
       </c>
@@ -16808,7 +16804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>355</v>
       </c>
@@ -16885,7 +16881,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>357</v>
       </c>
@@ -16962,7 +16958,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>359</v>
       </c>
@@ -17039,7 +17035,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>361</v>
       </c>
@@ -17116,7 +17112,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>363</v>
       </c>
@@ -17193,7 +17189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>365</v>
       </c>
@@ -17270,7 +17266,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>367</v>
       </c>
@@ -17347,7 +17343,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>369</v>
       </c>
@@ -17424,7 +17420,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>371</v>
       </c>
@@ -17501,7 +17497,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>373</v>
       </c>
@@ -17578,7 +17574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>375</v>
       </c>
@@ -17655,7 +17651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>377</v>
       </c>
@@ -17732,7 +17728,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>379</v>
       </c>
@@ -17809,7 +17805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>381</v>
       </c>
@@ -17886,7 +17882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>383</v>
       </c>
@@ -17963,7 +17959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>385</v>
       </c>
@@ -18040,7 +18036,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>387</v>
       </c>
@@ -18117,7 +18113,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>389</v>
       </c>
@@ -18194,7 +18190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>391</v>
       </c>
@@ -18271,7 +18267,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>393</v>
       </c>
@@ -18348,7 +18344,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>395</v>
       </c>
@@ -18425,7 +18421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>397</v>
       </c>
@@ -18502,7 +18498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>399</v>
       </c>
@@ -18579,7 +18575,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>401</v>
       </c>
@@ -18656,7 +18652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>403</v>
       </c>
@@ -18733,7 +18729,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>405</v>
       </c>
@@ -18810,7 +18806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>407</v>
       </c>
@@ -18887,7 +18883,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>409</v>
       </c>
@@ -18964,7 +18960,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>411</v>
       </c>
@@ -19041,7 +19037,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>413</v>
       </c>
@@ -19118,7 +19114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>415</v>
       </c>
@@ -19195,7 +19191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>417</v>
       </c>
@@ -19272,7 +19268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>419</v>
       </c>
@@ -19349,7 +19345,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>421</v>
       </c>
@@ -19426,7 +19422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>423</v>
       </c>
@@ -19503,7 +19499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>425</v>
       </c>
@@ -19580,7 +19576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>427</v>
       </c>
@@ -19657,7 +19653,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>429</v>
       </c>
@@ -19734,7 +19730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>431</v>
       </c>
@@ -19811,7 +19807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>433</v>
       </c>
@@ -19888,7 +19884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>435</v>
       </c>
@@ -19965,7 +19961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>437</v>
       </c>
@@ -20042,7 +20038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>439</v>
       </c>
@@ -20119,7 +20115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>441</v>
       </c>
@@ -20196,7 +20192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>443</v>
       </c>
@@ -20273,7 +20269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>445</v>
       </c>
@@ -20350,7 +20346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>447</v>
       </c>
@@ -20427,7 +20423,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>449</v>
       </c>
@@ -20504,7 +20500,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>451</v>
       </c>
@@ -20581,7 +20577,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>453</v>
       </c>
@@ -20658,7 +20654,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>455</v>
       </c>
@@ -20735,7 +20731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>457</v>
       </c>
@@ -20812,7 +20808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>459</v>
       </c>
@@ -20889,7 +20885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>461</v>
       </c>
@@ -20966,7 +20962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>463</v>
       </c>
@@ -21043,7 +21039,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>465</v>
       </c>
@@ -21120,7 +21116,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>467</v>
       </c>
@@ -21197,7 +21193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>469</v>
       </c>
@@ -21274,7 +21270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>471</v>
       </c>
@@ -21351,7 +21347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>473</v>
       </c>
@@ -21428,7 +21424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>475</v>
       </c>
@@ -21505,7 +21501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>477</v>
       </c>
@@ -21582,7 +21578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>479</v>
       </c>
@@ -21659,7 +21655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>481</v>
       </c>
@@ -21736,7 +21732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>483</v>
       </c>
@@ -21813,7 +21809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>485</v>
       </c>
@@ -21890,7 +21886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>487</v>
       </c>
@@ -21967,7 +21963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>489</v>
       </c>
@@ -22044,7 +22040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>491</v>
       </c>
@@ -22121,7 +22117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>493</v>
       </c>
@@ -22198,7 +22194,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>495</v>
       </c>
@@ -22275,7 +22271,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>497</v>
       </c>
@@ -22352,7 +22348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>499</v>
       </c>
@@ -22429,7 +22425,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>501</v>
       </c>
@@ -22506,7 +22502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>503</v>
       </c>
@@ -22583,7 +22579,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>505</v>
       </c>
@@ -22660,7 +22656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>507</v>
       </c>
@@ -22737,7 +22733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>509</v>
       </c>
@@ -22814,7 +22810,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>511</v>
       </c>
@@ -22891,7 +22887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>513</v>
       </c>
@@ -22968,7 +22964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>515</v>
       </c>
@@ -23045,7 +23041,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>517</v>
       </c>
@@ -23122,7 +23118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>519</v>
       </c>
@@ -23199,7 +23195,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>521</v>
       </c>
@@ -23276,7 +23272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>523</v>
       </c>
@@ -23353,7 +23349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>525</v>
       </c>
@@ -23430,7 +23426,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>527</v>
       </c>
@@ -23507,7 +23503,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>529</v>
       </c>
@@ -23584,7 +23580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>531</v>
       </c>
@@ -23661,7 +23657,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>533</v>
       </c>
@@ -23738,7 +23734,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>535</v>
       </c>
@@ -23815,7 +23811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>537</v>
       </c>
@@ -23892,7 +23888,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>539</v>
       </c>
@@ -23969,7 +23965,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>541</v>
       </c>
@@ -24046,7 +24042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>543</v>
       </c>
@@ -24123,7 +24119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>545</v>
       </c>
@@ -24200,7 +24196,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>547</v>
       </c>
@@ -24277,7 +24273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>549</v>
       </c>
@@ -24354,7 +24350,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>551</v>
       </c>
@@ -24431,7 +24427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>553</v>
       </c>
@@ -24508,7 +24504,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>555</v>
       </c>
@@ -24585,7 +24581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>557</v>
       </c>
@@ -24662,7 +24658,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>559</v>
       </c>
@@ -24739,7 +24735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>561</v>
       </c>
@@ -24816,7 +24812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>563</v>
       </c>
@@ -24893,7 +24889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>565</v>
       </c>
@@ -24970,7 +24966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>567</v>
       </c>
@@ -25047,7 +25043,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>569</v>
       </c>
@@ -25124,7 +25120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>571</v>
       </c>
@@ -25201,7 +25197,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>573</v>
       </c>
@@ -25278,7 +25274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>575</v>
       </c>
@@ -25355,7 +25351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>577</v>
       </c>
@@ -25432,7 +25428,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>579</v>
       </c>
@@ -25509,7 +25505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>581</v>
       </c>
@@ -25586,7 +25582,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>583</v>
       </c>
@@ -25663,7 +25659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>585</v>
       </c>
@@ -25740,7 +25736,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>587</v>
       </c>
@@ -25817,7 +25813,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>589</v>
       </c>
@@ -25894,7 +25890,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>591</v>
       </c>
@@ -25971,7 +25967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>593</v>
       </c>
@@ -26048,7 +26044,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>595</v>
       </c>
@@ -26125,7 +26121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>597</v>
       </c>
@@ -26202,7 +26198,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>599</v>
       </c>
@@ -26279,7 +26275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>601</v>
       </c>
@@ -26356,7 +26352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>603</v>
       </c>
@@ -26433,7 +26429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>605</v>
       </c>
@@ -26510,7 +26506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>607</v>
       </c>
@@ -26587,7 +26583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>609</v>
       </c>
@@ -26664,7 +26660,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>611</v>
       </c>
@@ -26741,7 +26737,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>613</v>
       </c>
@@ -26818,7 +26814,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>615</v>
       </c>
@@ -26895,7 +26891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>617</v>
       </c>
@@ -26972,7 +26968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>619</v>
       </c>
@@ -27049,7 +27045,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>621</v>
       </c>
@@ -27126,7 +27122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>623</v>
       </c>
@@ -27203,7 +27199,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>625</v>
       </c>
@@ -27280,7 +27276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>627</v>
       </c>
@@ -27357,7 +27353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>629</v>
       </c>
@@ -27434,7 +27430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>631</v>
       </c>
@@ -27511,7 +27507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>633</v>
       </c>
@@ -27588,7 +27584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>635</v>
       </c>
@@ -27665,7 +27661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>637</v>
       </c>
@@ -27742,7 +27738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>639</v>
       </c>
@@ -27816,7 +27812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>641</v>
       </c>
@@ -27893,7 +27889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>643</v>
       </c>
@@ -27970,7 +27966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>645</v>
       </c>
@@ -28047,7 +28043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>647</v>
       </c>
@@ -28124,7 +28120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>649</v>
       </c>
@@ -28201,7 +28197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>651</v>
       </c>
@@ -28278,7 +28274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>653</v>
       </c>
@@ -28355,7 +28351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>655</v>
       </c>
@@ -28432,7 +28428,7 @@
         <v>6336</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>657</v>
       </c>
@@ -28509,7 +28505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>659</v>
       </c>
@@ -28586,7 +28582,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>661</v>
       </c>
@@ -28663,7 +28659,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>663</v>
       </c>
@@ -28740,7 +28736,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>665</v>
       </c>
@@ -28817,7 +28813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>667</v>
       </c>
@@ -28894,7 +28890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>669</v>
       </c>
@@ -28971,7 +28967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>671</v>
       </c>
@@ -29048,7 +29044,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>673</v>
       </c>
@@ -29125,7 +29121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>675</v>
       </c>
@@ -29202,7 +29198,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>677</v>
       </c>
@@ -29279,7 +29275,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>679</v>
       </c>
@@ -29356,7 +29352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>681</v>
       </c>
@@ -29433,7 +29429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>683</v>
       </c>
@@ -29510,7 +29506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>685</v>
       </c>
@@ -29587,7 +29583,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>687</v>
       </c>
@@ -29664,7 +29660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>689</v>
       </c>
@@ -29741,7 +29737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>691</v>
       </c>
@@ -29818,7 +29814,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>693</v>
       </c>
@@ -29895,7 +29891,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>695</v>
       </c>
@@ -29972,7 +29968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>697</v>
       </c>
@@ -30049,7 +30045,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>699</v>
       </c>
@@ -30126,7 +30122,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>701</v>
       </c>
@@ -30203,7 +30199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>703</v>
       </c>
@@ -30280,7 +30276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>705</v>
       </c>
@@ -30357,7 +30353,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>707</v>
       </c>
@@ -30434,7 +30430,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>709</v>
       </c>
@@ -30511,7 +30507,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>711</v>
       </c>
@@ -30588,7 +30584,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>713</v>
       </c>
@@ -30665,7 +30661,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>715</v>
       </c>
@@ -30742,7 +30738,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>717</v>
       </c>
@@ -30819,7 +30815,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>719</v>
       </c>
@@ -30896,7 +30892,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>721</v>
       </c>
@@ -30973,7 +30969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>723</v>
       </c>
@@ -31050,7 +31046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>725</v>
       </c>
@@ -31127,7 +31123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>727</v>
       </c>
@@ -31204,7 +31200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>729</v>
       </c>
@@ -31281,7 +31277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>731</v>
       </c>
@@ -31358,7 +31354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>733</v>
       </c>
@@ -31435,7 +31431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>735</v>
       </c>
@@ -31512,7 +31508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>737</v>
       </c>
@@ -31589,7 +31585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>739</v>
       </c>
@@ -31666,7 +31662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>741</v>
       </c>
@@ -31743,7 +31739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>743</v>
       </c>
@@ -31820,7 +31816,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>745</v>
       </c>
@@ -31897,7 +31893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>747</v>
       </c>
@@ -31974,7 +31970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>749</v>
       </c>
@@ -32051,7 +32047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>751</v>
       </c>
@@ -32128,7 +32124,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>753</v>
       </c>
@@ -32205,7 +32201,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>755</v>
       </c>
@@ -32282,7 +32278,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>757</v>
       </c>
@@ -32359,7 +32355,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>759</v>
       </c>
@@ -32436,7 +32432,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>761</v>
       </c>
@@ -32513,7 +32509,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>763</v>
       </c>
@@ -32590,7 +32586,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>765</v>
       </c>
@@ -32667,7 +32663,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>767</v>
       </c>
@@ -32744,7 +32740,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>769</v>
       </c>
@@ -32821,7 +32817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>771</v>
       </c>
@@ -32898,7 +32894,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>773</v>
       </c>
@@ -32975,7 +32971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>775</v>
       </c>
@@ -33052,7 +33048,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>777</v>
       </c>
@@ -33129,7 +33125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>779</v>
       </c>
@@ -33206,7 +33202,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>781</v>
       </c>
@@ -33283,7 +33279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>783</v>
       </c>
@@ -33360,7 +33356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>785</v>
       </c>
@@ -33437,7 +33433,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>787</v>
       </c>
@@ -33514,7 +33510,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>789</v>
       </c>
@@ -33591,7 +33587,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>791</v>
       </c>
@@ -33668,7 +33664,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>793</v>
       </c>
@@ -33745,7 +33741,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>795</v>
       </c>
@@ -33822,7 +33818,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>797</v>
       </c>
@@ -33899,7 +33895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>799</v>
       </c>
@@ -33976,7 +33972,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>801</v>
       </c>
@@ -34053,7 +34049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>803</v>
       </c>
@@ -34130,7 +34126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>805</v>
       </c>
@@ -34207,7 +34203,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>807</v>
       </c>
@@ -34284,7 +34280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>809</v>
       </c>
@@ -34361,7 +34357,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>811</v>
       </c>
@@ -34438,7 +34434,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>813</v>
       </c>
@@ -34515,7 +34511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>815</v>
       </c>
@@ -34592,7 +34588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>817</v>
       </c>
@@ -34669,7 +34665,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>819</v>
       </c>
@@ -34746,7 +34742,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>821</v>
       </c>
@@ -34823,7 +34819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>823</v>
       </c>
@@ -34900,7 +34896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>825</v>
       </c>
@@ -34977,7 +34973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>827</v>
       </c>
@@ -35054,7 +35050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>829</v>
       </c>
@@ -35131,7 +35127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>831</v>
       </c>
@@ -35208,7 +35204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>833</v>
       </c>
@@ -35285,7 +35281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>835</v>
       </c>
@@ -35362,7 +35358,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>837</v>
       </c>
@@ -35439,7 +35435,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>839</v>
       </c>
@@ -35516,7 +35512,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>841</v>
       </c>
@@ -35593,7 +35589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>843</v>
       </c>
@@ -35670,7 +35666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>845</v>
       </c>
@@ -35747,7 +35743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>847</v>
       </c>
@@ -35824,7 +35820,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>849</v>
       </c>
@@ -35901,7 +35897,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>851</v>
       </c>
@@ -35978,7 +35974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>853</v>
       </c>
@@ -36055,7 +36051,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>855</v>
       </c>
@@ -36132,7 +36128,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>857</v>
       </c>
@@ -36209,7 +36205,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>859</v>
       </c>
@@ -36286,7 +36282,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>861</v>
       </c>
@@ -36363,7 +36359,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>863</v>
       </c>
@@ -36440,7 +36436,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>865</v>
       </c>
@@ -36517,7 +36513,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>867</v>
       </c>
@@ -36591,7 +36587,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>869</v>
       </c>
@@ -36665,7 +36661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>871</v>
       </c>
@@ -36739,7 +36735,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>873</v>
       </c>
@@ -36813,7 +36809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>875</v>
       </c>
@@ -36887,7 +36883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>877</v>
       </c>
@@ -36961,7 +36957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>879</v>
       </c>
@@ -37035,7 +37031,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>881</v>
       </c>

--- a/lab7/data/homelessness_data.xlsx
+++ b/lab7/data/homelessness_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidsosa/Code/school/regression-analysis/labs/lab7/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292384A6-0F22-6647-9A34-E1BD1325B42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7262E1C-E551-744F-B091-9D44E8D7F0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="13020" windowWidth="23840" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42820" yWindow="4540" windowWidth="23840" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Homelessness" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="947">
   <si>
     <t>Alabama</t>
   </si>
@@ -2830,9 +2830,6 @@
   </si>
   <si>
     <t>KY</t>
-  </si>
-  <si>
-    <t>state_name</t>
   </si>
   <si>
     <t>state_code</t>
@@ -3193,9 +3190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3206,13 +3201,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>934</v>
       </c>
-      <c r="B1" t="s">
-        <v>935</v>
-      </c>
       <c r="C1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3786,49 +3781,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD448BA-3126-4967-99D6-3CA110BD445F}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>934</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D1" t="s">
         <v>936</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>937</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>938</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>939</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>940</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>941</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>942</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>943</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>944</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>945</v>
-      </c>
-      <c r="M1" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
